--- a/planing_formation.xlsx
+++ b/planing_formation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA2337-E384-4D14-A43C-49CED8C87D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E92C33-C43D-40EC-AF57-9A0E0DA7CE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendrier annuel complet" sheetId="1" r:id="rId1"/>
@@ -462,22 +462,22 @@
     <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="5" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="5" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyAlignment="1">
@@ -486,8 +486,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -891,117 +891,117 @@
   <sheetData>
     <row r="1" spans="1:30" ht="64.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="36" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
     </row>
     <row r="2" spans="1:30" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
-      <c r="B2" s="29">
+      <c r="B2" s="32">
         <f ca="1">YEAR(TODAY())</f>
-        <v>2019</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
+        <v>2020</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
     </row>
     <row r="3" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="str">
+      <c r="B3" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>JANVIER</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28" t="str">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>FÉVRIER</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28" t="str">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>MARS</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="28" t="str">
+      <c r="X3" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>AVRIL</v>
       </c>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
     </row>
     <row r="4" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="str">
@@ -1121,735 +1121,735 @@
     <row r="5" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5">
         <f t="array" aca="1" ref="B5:H10" ca="1">Jan</f>
-        <v>43464</v>
+        <v>43828</v>
       </c>
       <c r="C5" s="5">
         <f ca="1"/>
-        <v>43465</v>
+        <v>43829</v>
       </c>
       <c r="D5" s="5">
         <f ca="1"/>
-        <v>43466</v>
+        <v>43830</v>
       </c>
       <c r="E5" s="5">
         <f ca="1"/>
-        <v>43467</v>
+        <v>43831</v>
       </c>
       <c r="F5" s="5">
         <f ca="1"/>
-        <v>43468</v>
+        <v>43832</v>
       </c>
       <c r="G5" s="5">
         <f ca="1"/>
-        <v>43469</v>
+        <v>43833</v>
       </c>
       <c r="H5" s="5">
         <f ca="1"/>
-        <v>43470</v>
+        <v>43834</v>
       </c>
       <c r="I5" s="5">
         <f t="array" aca="1" ref="I5:O10" ca="1">Fév</f>
-        <v>43492</v>
+        <v>43856</v>
       </c>
       <c r="J5" s="5">
         <f ca="1"/>
-        <v>43493</v>
+        <v>43857</v>
       </c>
       <c r="K5" s="5">
         <f ca="1"/>
-        <v>43494</v>
+        <v>43858</v>
       </c>
       <c r="L5" s="5">
         <f ca="1"/>
-        <v>43495</v>
+        <v>43859</v>
       </c>
       <c r="M5" s="5">
         <f ca="1"/>
-        <v>43496</v>
+        <v>43860</v>
       </c>
       <c r="N5" s="5">
         <f ca="1"/>
-        <v>43497</v>
+        <v>43861</v>
       </c>
       <c r="O5" s="5">
         <f ca="1"/>
-        <v>43498</v>
+        <v>43862</v>
       </c>
       <c r="P5" s="5">
         <f t="array" aca="1" ref="P5:V10" ca="1">Mar</f>
-        <v>43520</v>
+        <v>43891</v>
       </c>
       <c r="Q5" s="5">
         <f ca="1"/>
-        <v>43521</v>
+        <v>43892</v>
       </c>
       <c r="R5" s="5">
         <f ca="1"/>
-        <v>43522</v>
+        <v>43893</v>
       </c>
       <c r="S5" s="5">
         <f ca="1"/>
-        <v>43523</v>
+        <v>43894</v>
       </c>
       <c r="T5" s="5">
         <f ca="1"/>
-        <v>43524</v>
+        <v>43895</v>
       </c>
       <c r="U5" s="5">
         <f ca="1"/>
-        <v>43525</v>
+        <v>43896</v>
       </c>
       <c r="V5" s="5">
         <f ca="1"/>
-        <v>43526</v>
+        <v>43897</v>
       </c>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
         <f t="array" aca="1" ref="X5:AD10" ca="1">Avr</f>
-        <v>43555</v>
+        <v>43919</v>
       </c>
       <c r="Y5" s="5">
         <f ca="1"/>
-        <v>43556</v>
+        <v>43920</v>
       </c>
       <c r="Z5" s="5">
         <f ca="1"/>
-        <v>43557</v>
+        <v>43921</v>
       </c>
       <c r="AA5" s="5">
         <f ca="1"/>
-        <v>43558</v>
+        <v>43922</v>
       </c>
       <c r="AB5" s="5">
         <f ca="1"/>
-        <v>43559</v>
+        <v>43923</v>
       </c>
       <c r="AC5" s="5">
         <f ca="1"/>
-        <v>43560</v>
+        <v>43924</v>
       </c>
       <c r="AD5" s="5">
         <f ca="1"/>
-        <v>43561</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5">
         <f ca="1"/>
-        <v>43471</v>
+        <v>43835</v>
       </c>
       <c r="C6" s="5">
         <f ca="1"/>
-        <v>43472</v>
+        <v>43836</v>
       </c>
       <c r="D6" s="5">
         <f ca="1"/>
-        <v>43473</v>
+        <v>43837</v>
       </c>
       <c r="E6" s="5">
         <f ca="1"/>
-        <v>43474</v>
+        <v>43838</v>
       </c>
       <c r="F6" s="5">
         <f ca="1"/>
-        <v>43475</v>
+        <v>43839</v>
       </c>
       <c r="G6" s="5">
         <f ca="1"/>
-        <v>43476</v>
+        <v>43840</v>
       </c>
       <c r="H6" s="5">
         <f ca="1"/>
-        <v>43477</v>
+        <v>43841</v>
       </c>
       <c r="I6" s="5">
         <f ca="1"/>
-        <v>43499</v>
+        <v>43863</v>
       </c>
       <c r="J6" s="5">
         <f ca="1"/>
-        <v>43500</v>
+        <v>43864</v>
       </c>
       <c r="K6" s="5">
         <f ca="1"/>
-        <v>43501</v>
+        <v>43865</v>
       </c>
       <c r="L6" s="5">
         <f ca="1"/>
-        <v>43502</v>
+        <v>43866</v>
       </c>
       <c r="M6" s="5">
         <f ca="1"/>
-        <v>43503</v>
+        <v>43867</v>
       </c>
       <c r="N6" s="5">
         <f ca="1"/>
-        <v>43504</v>
+        <v>43868</v>
       </c>
       <c r="O6" s="5">
         <f ca="1"/>
-        <v>43505</v>
+        <v>43869</v>
       </c>
       <c r="P6" s="5">
         <f ca="1"/>
-        <v>43527</v>
+        <v>43898</v>
       </c>
       <c r="Q6" s="5">
         <f ca="1"/>
-        <v>43528</v>
+        <v>43899</v>
       </c>
       <c r="R6" s="5">
         <f ca="1"/>
-        <v>43529</v>
+        <v>43900</v>
       </c>
       <c r="S6" s="5">
         <f ca="1"/>
-        <v>43530</v>
+        <v>43901</v>
       </c>
       <c r="T6" s="5">
         <f ca="1"/>
-        <v>43531</v>
+        <v>43902</v>
       </c>
       <c r="U6" s="5">
         <f ca="1"/>
-        <v>43532</v>
+        <v>43903</v>
       </c>
       <c r="V6" s="5">
         <f ca="1"/>
-        <v>43533</v>
+        <v>43904</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5">
         <f ca="1"/>
-        <v>43562</v>
+        <v>43926</v>
       </c>
       <c r="Y6" s="5">
         <f ca="1"/>
-        <v>43563</v>
+        <v>43927</v>
       </c>
       <c r="Z6" s="5">
         <f ca="1"/>
-        <v>43564</v>
+        <v>43928</v>
       </c>
       <c r="AA6" s="5">
         <f ca="1"/>
-        <v>43565</v>
+        <v>43929</v>
       </c>
       <c r="AB6" s="5">
         <f ca="1"/>
-        <v>43566</v>
+        <v>43930</v>
       </c>
       <c r="AC6" s="5">
         <f ca="1"/>
-        <v>43567</v>
+        <v>43931</v>
       </c>
       <c r="AD6" s="5">
         <f ca="1"/>
-        <v>43568</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <f ca="1"/>
-        <v>43478</v>
+        <v>43842</v>
       </c>
       <c r="C7" s="5">
         <f ca="1"/>
-        <v>43479</v>
+        <v>43843</v>
       </c>
       <c r="D7" s="5">
         <f ca="1"/>
-        <v>43480</v>
+        <v>43844</v>
       </c>
       <c r="E7" s="5">
         <f ca="1"/>
-        <v>43481</v>
+        <v>43845</v>
       </c>
       <c r="F7" s="5">
         <f ca="1"/>
-        <v>43482</v>
+        <v>43846</v>
       </c>
       <c r="G7" s="5">
         <f ca="1"/>
-        <v>43483</v>
+        <v>43847</v>
       </c>
       <c r="H7" s="5">
         <f ca="1"/>
-        <v>43484</v>
+        <v>43848</v>
       </c>
       <c r="I7" s="5">
         <f ca="1"/>
-        <v>43506</v>
+        <v>43870</v>
       </c>
       <c r="J7" s="5">
         <f ca="1"/>
-        <v>43507</v>
+        <v>43871</v>
       </c>
       <c r="K7" s="5">
         <f ca="1"/>
-        <v>43508</v>
+        <v>43872</v>
       </c>
       <c r="L7" s="5">
         <f ca="1"/>
-        <v>43509</v>
+        <v>43873</v>
       </c>
       <c r="M7" s="5">
         <f ca="1"/>
-        <v>43510</v>
+        <v>43874</v>
       </c>
       <c r="N7" s="5">
         <f ca="1"/>
-        <v>43511</v>
+        <v>43875</v>
       </c>
       <c r="O7" s="5">
         <f ca="1"/>
-        <v>43512</v>
+        <v>43876</v>
       </c>
       <c r="P7" s="5">
         <f ca="1"/>
-        <v>43534</v>
+        <v>43905</v>
       </c>
       <c r="Q7" s="5">
         <f ca="1"/>
-        <v>43535</v>
+        <v>43906</v>
       </c>
       <c r="R7" s="5">
         <f ca="1"/>
-        <v>43536</v>
+        <v>43907</v>
       </c>
       <c r="S7" s="5">
         <f ca="1"/>
-        <v>43537</v>
+        <v>43908</v>
       </c>
       <c r="T7" s="5">
         <f ca="1"/>
-        <v>43538</v>
+        <v>43909</v>
       </c>
       <c r="U7" s="5">
         <f ca="1"/>
-        <v>43539</v>
+        <v>43910</v>
       </c>
       <c r="V7" s="5">
         <f ca="1"/>
-        <v>43540</v>
+        <v>43911</v>
       </c>
       <c r="W7" s="5"/>
       <c r="X7" s="5">
         <f ca="1"/>
-        <v>43569</v>
+        <v>43933</v>
       </c>
       <c r="Y7" s="5">
         <f ca="1"/>
-        <v>43570</v>
+        <v>43934</v>
       </c>
       <c r="Z7" s="5">
         <f ca="1"/>
-        <v>43571</v>
+        <v>43935</v>
       </c>
       <c r="AA7" s="5">
         <f ca="1"/>
-        <v>43572</v>
+        <v>43936</v>
       </c>
       <c r="AB7" s="5">
         <f ca="1"/>
-        <v>43573</v>
+        <v>43937</v>
       </c>
       <c r="AC7" s="5">
         <f ca="1"/>
-        <v>43574</v>
+        <v>43938</v>
       </c>
       <c r="AD7" s="5">
         <f ca="1"/>
-        <v>43575</v>
+        <v>43939</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <f ca="1"/>
-        <v>43485</v>
+        <v>43849</v>
       </c>
       <c r="C8" s="5">
         <f ca="1"/>
-        <v>43486</v>
+        <v>43850</v>
       </c>
       <c r="D8" s="5">
         <f ca="1"/>
-        <v>43487</v>
+        <v>43851</v>
       </c>
       <c r="E8" s="5">
         <f ca="1"/>
-        <v>43488</v>
+        <v>43852</v>
       </c>
       <c r="F8" s="5">
         <f ca="1"/>
-        <v>43489</v>
+        <v>43853</v>
       </c>
       <c r="G8" s="5">
         <f ca="1"/>
-        <v>43490</v>
+        <v>43854</v>
       </c>
       <c r="H8" s="5">
         <f ca="1"/>
-        <v>43491</v>
+        <v>43855</v>
       </c>
       <c r="I8" s="5">
         <f ca="1"/>
-        <v>43513</v>
+        <v>43877</v>
       </c>
       <c r="J8" s="5">
         <f ca="1"/>
-        <v>43514</v>
+        <v>43878</v>
       </c>
       <c r="K8" s="5">
         <f ca="1"/>
-        <v>43515</v>
+        <v>43879</v>
       </c>
       <c r="L8" s="5">
         <f ca="1"/>
-        <v>43516</v>
+        <v>43880</v>
       </c>
       <c r="M8" s="5">
         <f ca="1"/>
-        <v>43517</v>
+        <v>43881</v>
       </c>
       <c r="N8" s="5">
         <f ca="1"/>
-        <v>43518</v>
+        <v>43882</v>
       </c>
       <c r="O8" s="5">
         <f ca="1"/>
-        <v>43519</v>
+        <v>43883</v>
       </c>
       <c r="P8" s="5">
         <f ca="1"/>
-        <v>43541</v>
+        <v>43912</v>
       </c>
       <c r="Q8" s="5">
         <f ca="1"/>
-        <v>43542</v>
+        <v>43913</v>
       </c>
       <c r="R8" s="5">
         <f ca="1"/>
-        <v>43543</v>
+        <v>43914</v>
       </c>
       <c r="S8" s="5">
         <f ca="1"/>
-        <v>43544</v>
+        <v>43915</v>
       </c>
       <c r="T8" s="5">
         <f ca="1"/>
-        <v>43545</v>
+        <v>43916</v>
       </c>
       <c r="U8" s="5">
         <f ca="1"/>
-        <v>43546</v>
+        <v>43917</v>
       </c>
       <c r="V8" s="5">
         <f ca="1"/>
-        <v>43547</v>
+        <v>43918</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="5">
         <f ca="1"/>
-        <v>43576</v>
+        <v>43940</v>
       </c>
       <c r="Y8" s="5">
         <f ca="1"/>
-        <v>43577</v>
+        <v>43941</v>
       </c>
       <c r="Z8" s="5">
         <f ca="1"/>
-        <v>43578</v>
+        <v>43942</v>
       </c>
       <c r="AA8" s="5">
         <f ca="1"/>
-        <v>43579</v>
+        <v>43943</v>
       </c>
       <c r="AB8" s="5">
         <f ca="1"/>
-        <v>43580</v>
+        <v>43944</v>
       </c>
       <c r="AC8" s="5">
         <f ca="1"/>
-        <v>43581</v>
+        <v>43945</v>
       </c>
       <c r="AD8" s="5">
         <f ca="1"/>
-        <v>43582</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <f ca="1"/>
-        <v>43492</v>
+        <v>43856</v>
       </c>
       <c r="C9" s="5">
         <f ca="1"/>
-        <v>43493</v>
+        <v>43857</v>
       </c>
       <c r="D9" s="5">
         <f ca="1"/>
-        <v>43494</v>
+        <v>43858</v>
       </c>
       <c r="E9" s="5">
         <f ca="1"/>
-        <v>43495</v>
+        <v>43859</v>
       </c>
       <c r="F9" s="5">
         <f ca="1"/>
-        <v>43496</v>
+        <v>43860</v>
       </c>
       <c r="G9" s="5">
         <f ca="1"/>
-        <v>43497</v>
+        <v>43861</v>
       </c>
       <c r="H9" s="5">
         <f ca="1"/>
-        <v>43498</v>
+        <v>43862</v>
       </c>
       <c r="I9" s="5">
         <f ca="1"/>
-        <v>43520</v>
+        <v>43884</v>
       </c>
       <c r="J9" s="5">
         <f ca="1"/>
-        <v>43521</v>
+        <v>43885</v>
       </c>
       <c r="K9" s="5">
         <f ca="1"/>
-        <v>43522</v>
+        <v>43886</v>
       </c>
       <c r="L9" s="5">
         <f ca="1"/>
-        <v>43523</v>
+        <v>43887</v>
       </c>
       <c r="M9" s="5">
         <f ca="1"/>
-        <v>43524</v>
+        <v>43888</v>
       </c>
       <c r="N9" s="5">
         <f ca="1"/>
-        <v>43525</v>
+        <v>43889</v>
       </c>
       <c r="O9" s="5">
         <f ca="1"/>
-        <v>43526</v>
+        <v>43890</v>
       </c>
       <c r="P9" s="5">
         <f ca="1"/>
-        <v>43548</v>
+        <v>43919</v>
       </c>
       <c r="Q9" s="5">
         <f ca="1"/>
-        <v>43549</v>
+        <v>43920</v>
       </c>
       <c r="R9" s="5">
         <f ca="1"/>
-        <v>43550</v>
+        <v>43921</v>
       </c>
       <c r="S9" s="5">
         <f ca="1"/>
-        <v>43551</v>
+        <v>43922</v>
       </c>
       <c r="T9" s="5">
         <f ca="1"/>
-        <v>43552</v>
+        <v>43923</v>
       </c>
       <c r="U9" s="5">
         <f ca="1"/>
-        <v>43553</v>
+        <v>43924</v>
       </c>
       <c r="V9" s="5">
         <f ca="1"/>
-        <v>43554</v>
+        <v>43925</v>
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5">
         <f ca="1"/>
-        <v>43583</v>
+        <v>43947</v>
       </c>
       <c r="Y9" s="5">
         <f ca="1"/>
-        <v>43584</v>
+        <v>43948</v>
       </c>
       <c r="Z9" s="5">
         <f ca="1"/>
-        <v>43585</v>
+        <v>43949</v>
       </c>
       <c r="AA9" s="5">
         <f ca="1"/>
-        <v>43586</v>
+        <v>43950</v>
       </c>
       <c r="AB9" s="5">
         <f ca="1"/>
-        <v>43587</v>
+        <v>43951</v>
       </c>
       <c r="AC9" s="5">
         <f ca="1"/>
-        <v>43588</v>
+        <v>43952</v>
       </c>
       <c r="AD9" s="5">
         <f ca="1"/>
-        <v>43589</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5">
         <f ca="1"/>
-        <v>43499</v>
+        <v>43863</v>
       </c>
       <c r="C10" s="5">
         <f ca="1"/>
-        <v>43500</v>
+        <v>43864</v>
       </c>
       <c r="D10" s="5">
         <f ca="1"/>
-        <v>43501</v>
+        <v>43865</v>
       </c>
       <c r="E10" s="5">
         <f ca="1"/>
-        <v>43502</v>
+        <v>43866</v>
       </c>
       <c r="F10" s="5">
         <f ca="1"/>
-        <v>43503</v>
+        <v>43867</v>
       </c>
       <c r="G10" s="5">
         <f ca="1"/>
-        <v>43504</v>
+        <v>43868</v>
       </c>
       <c r="H10" s="5">
         <f ca="1"/>
-        <v>43505</v>
+        <v>43869</v>
       </c>
       <c r="I10" s="5">
         <f ca="1"/>
-        <v>43527</v>
+        <v>43891</v>
       </c>
       <c r="J10" s="5">
         <f ca="1"/>
-        <v>43528</v>
+        <v>43892</v>
       </c>
       <c r="K10" s="5">
         <f ca="1"/>
-        <v>43529</v>
+        <v>43893</v>
       </c>
       <c r="L10" s="5">
         <f ca="1"/>
-        <v>43530</v>
+        <v>43894</v>
       </c>
       <c r="M10" s="5">
         <f ca="1"/>
-        <v>43531</v>
+        <v>43895</v>
       </c>
       <c r="N10" s="5">
         <f ca="1"/>
-        <v>43532</v>
+        <v>43896</v>
       </c>
       <c r="O10" s="5">
         <f ca="1"/>
-        <v>43533</v>
+        <v>43897</v>
       </c>
       <c r="P10" s="5">
         <f ca="1"/>
-        <v>43555</v>
+        <v>43926</v>
       </c>
       <c r="Q10" s="5">
         <f ca="1"/>
-        <v>43556</v>
+        <v>43927</v>
       </c>
       <c r="R10" s="5">
         <f ca="1"/>
-        <v>43557</v>
+        <v>43928</v>
       </c>
       <c r="S10" s="5">
         <f ca="1"/>
-        <v>43558</v>
+        <v>43929</v>
       </c>
       <c r="T10" s="5">
         <f ca="1"/>
-        <v>43559</v>
+        <v>43930</v>
       </c>
       <c r="U10" s="5">
         <f ca="1"/>
-        <v>43560</v>
+        <v>43931</v>
       </c>
       <c r="V10" s="5">
         <f ca="1"/>
-        <v>43561</v>
+        <v>43932</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
         <f ca="1"/>
-        <v>43590</v>
+        <v>43954</v>
       </c>
       <c r="Y10" s="5">
         <f ca="1"/>
-        <v>43591</v>
+        <v>43955</v>
       </c>
       <c r="Z10" s="5">
         <f ca="1"/>
-        <v>43592</v>
+        <v>43956</v>
       </c>
       <c r="AA10" s="5">
         <f ca="1"/>
-        <v>43593</v>
+        <v>43957</v>
       </c>
       <c r="AB10" s="5">
         <f ca="1"/>
-        <v>43594</v>
+        <v>43958</v>
       </c>
       <c r="AC10" s="5">
         <f ca="1"/>
-        <v>43595</v>
+        <v>43959</v>
       </c>
       <c r="AD10" s="5">
         <f ca="1"/>
-        <v>43596</v>
+        <v>43960</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="28" t="str">
+      <c r="B11" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>MAI</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="str">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>JUIN</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28" t="str">
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>JUILLET</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="28" t="str">
+      <c r="X11" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>AOÛT</v>
       </c>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
     </row>
     <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="str">
@@ -1969,735 +1969,735 @@
     <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <f t="array" aca="1" ref="B13:H18" ca="1">Mai</f>
-        <v>43583</v>
+        <v>43947</v>
       </c>
       <c r="C13" s="5">
         <f ca="1"/>
-        <v>43584</v>
+        <v>43948</v>
       </c>
       <c r="D13" s="5">
         <f ca="1"/>
-        <v>43585</v>
+        <v>43949</v>
       </c>
       <c r="E13" s="5">
         <f ca="1"/>
-        <v>43586</v>
+        <v>43950</v>
       </c>
       <c r="F13" s="5">
         <f ca="1"/>
-        <v>43587</v>
+        <v>43951</v>
       </c>
       <c r="G13" s="5">
         <f ca="1"/>
-        <v>43588</v>
+        <v>43952</v>
       </c>
       <c r="H13" s="5">
         <f ca="1"/>
-        <v>43589</v>
+        <v>43953</v>
       </c>
       <c r="I13" s="5">
         <f t="array" aca="1" ref="I13:O18" ca="1">Jun</f>
-        <v>43611</v>
+        <v>43982</v>
       </c>
       <c r="J13" s="5">
         <f ca="1"/>
-        <v>43612</v>
+        <v>43983</v>
       </c>
       <c r="K13" s="5">
         <f ca="1"/>
-        <v>43613</v>
+        <v>43984</v>
       </c>
       <c r="L13" s="5">
         <f ca="1"/>
-        <v>43614</v>
+        <v>43985</v>
       </c>
       <c r="M13" s="5">
         <f ca="1"/>
-        <v>43615</v>
+        <v>43986</v>
       </c>
       <c r="N13" s="5">
         <f ca="1"/>
-        <v>43616</v>
+        <v>43987</v>
       </c>
       <c r="O13" s="5">
         <f ca="1"/>
-        <v>43617</v>
+        <v>43988</v>
       </c>
       <c r="P13" s="5">
         <f t="array" aca="1" ref="P13:V18" ca="1">Jul</f>
-        <v>43646</v>
+        <v>44010</v>
       </c>
       <c r="Q13" s="5">
         <f ca="1"/>
-        <v>43647</v>
+        <v>44011</v>
       </c>
       <c r="R13" s="5">
         <f ca="1"/>
-        <v>43648</v>
+        <v>44012</v>
       </c>
       <c r="S13" s="5">
         <f ca="1"/>
-        <v>43649</v>
+        <v>44013</v>
       </c>
       <c r="T13" s="5">
         <f ca="1"/>
-        <v>43650</v>
+        <v>44014</v>
       </c>
       <c r="U13" s="5">
         <f ca="1"/>
-        <v>43651</v>
+        <v>44015</v>
       </c>
       <c r="V13" s="5">
         <f ca="1"/>
-        <v>43652</v>
+        <v>44016</v>
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5">
         <f t="array" aca="1" ref="X13:AD18" ca="1">Aoû</f>
-        <v>43674</v>
+        <v>44038</v>
       </c>
       <c r="Y13" s="5">
         <f ca="1"/>
-        <v>43675</v>
+        <v>44039</v>
       </c>
       <c r="Z13" s="5">
         <f ca="1"/>
-        <v>43676</v>
+        <v>44040</v>
       </c>
       <c r="AA13" s="5">
         <f ca="1"/>
-        <v>43677</v>
+        <v>44041</v>
       </c>
       <c r="AB13" s="5">
         <f ca="1"/>
-        <v>43678</v>
+        <v>44042</v>
       </c>
       <c r="AC13" s="5">
         <f ca="1"/>
-        <v>43679</v>
+        <v>44043</v>
       </c>
       <c r="AD13" s="5">
         <f ca="1"/>
-        <v>43680</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <f ca="1"/>
-        <v>43590</v>
+        <v>43954</v>
       </c>
       <c r="C14" s="5">
         <f ca="1"/>
-        <v>43591</v>
+        <v>43955</v>
       </c>
       <c r="D14" s="5">
         <f ca="1"/>
-        <v>43592</v>
+        <v>43956</v>
       </c>
       <c r="E14" s="5">
         <f ca="1"/>
-        <v>43593</v>
+        <v>43957</v>
       </c>
       <c r="F14" s="5">
         <f ca="1"/>
-        <v>43594</v>
+        <v>43958</v>
       </c>
       <c r="G14" s="5">
         <f ca="1"/>
-        <v>43595</v>
+        <v>43959</v>
       </c>
       <c r="H14" s="5">
         <f ca="1"/>
-        <v>43596</v>
+        <v>43960</v>
       </c>
       <c r="I14" s="5">
         <f ca="1"/>
-        <v>43618</v>
+        <v>43989</v>
       </c>
       <c r="J14" s="5">
         <f ca="1"/>
-        <v>43619</v>
+        <v>43990</v>
       </c>
       <c r="K14" s="5">
         <f ca="1"/>
-        <v>43620</v>
+        <v>43991</v>
       </c>
       <c r="L14" s="5">
         <f ca="1"/>
-        <v>43621</v>
+        <v>43992</v>
       </c>
       <c r="M14" s="5">
         <f ca="1"/>
-        <v>43622</v>
+        <v>43993</v>
       </c>
       <c r="N14" s="5">
         <f ca="1"/>
-        <v>43623</v>
+        <v>43994</v>
       </c>
       <c r="O14" s="5">
         <f ca="1"/>
-        <v>43624</v>
+        <v>43995</v>
       </c>
       <c r="P14" s="5">
         <f ca="1"/>
-        <v>43653</v>
+        <v>44017</v>
       </c>
       <c r="Q14" s="5">
         <f ca="1"/>
-        <v>43654</v>
+        <v>44018</v>
       </c>
       <c r="R14" s="5">
         <f ca="1"/>
-        <v>43655</v>
+        <v>44019</v>
       </c>
       <c r="S14" s="5">
         <f ca="1"/>
-        <v>43656</v>
+        <v>44020</v>
       </c>
       <c r="T14" s="5">
         <f ca="1"/>
-        <v>43657</v>
+        <v>44021</v>
       </c>
       <c r="U14" s="5">
         <f ca="1"/>
-        <v>43658</v>
+        <v>44022</v>
       </c>
       <c r="V14" s="5">
         <f ca="1"/>
-        <v>43659</v>
+        <v>44023</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5">
         <f ca="1"/>
-        <v>43681</v>
+        <v>44045</v>
       </c>
       <c r="Y14" s="5">
         <f ca="1"/>
-        <v>43682</v>
+        <v>44046</v>
       </c>
       <c r="Z14" s="5">
         <f ca="1"/>
-        <v>43683</v>
+        <v>44047</v>
       </c>
       <c r="AA14" s="5">
         <f ca="1"/>
-        <v>43684</v>
+        <v>44048</v>
       </c>
       <c r="AB14" s="5">
         <f ca="1"/>
-        <v>43685</v>
+        <v>44049</v>
       </c>
       <c r="AC14" s="5">
         <f ca="1"/>
-        <v>43686</v>
+        <v>44050</v>
       </c>
       <c r="AD14" s="5">
         <f ca="1"/>
-        <v>43687</v>
+        <v>44051</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <f ca="1"/>
-        <v>43597</v>
+        <v>43961</v>
       </c>
       <c r="C15" s="5">
         <f ca="1"/>
-        <v>43598</v>
+        <v>43962</v>
       </c>
       <c r="D15" s="5">
         <f ca="1"/>
-        <v>43599</v>
+        <v>43963</v>
       </c>
       <c r="E15" s="5">
         <f ca="1"/>
-        <v>43600</v>
+        <v>43964</v>
       </c>
       <c r="F15" s="5">
         <f ca="1"/>
-        <v>43601</v>
+        <v>43965</v>
       </c>
       <c r="G15" s="5">
         <f ca="1"/>
-        <v>43602</v>
+        <v>43966</v>
       </c>
       <c r="H15" s="5">
         <f ca="1"/>
-        <v>43603</v>
+        <v>43967</v>
       </c>
       <c r="I15" s="5">
         <f ca="1"/>
-        <v>43625</v>
+        <v>43996</v>
       </c>
       <c r="J15" s="5">
         <f ca="1"/>
-        <v>43626</v>
+        <v>43997</v>
       </c>
       <c r="K15" s="5">
         <f ca="1"/>
-        <v>43627</v>
+        <v>43998</v>
       </c>
       <c r="L15" s="5">
         <f ca="1"/>
-        <v>43628</v>
+        <v>43999</v>
       </c>
       <c r="M15" s="5">
         <f ca="1"/>
-        <v>43629</v>
+        <v>44000</v>
       </c>
       <c r="N15" s="5">
         <f ca="1"/>
-        <v>43630</v>
+        <v>44001</v>
       </c>
       <c r="O15" s="5">
         <f ca="1"/>
-        <v>43631</v>
+        <v>44002</v>
       </c>
       <c r="P15" s="5">
         <f ca="1"/>
-        <v>43660</v>
+        <v>44024</v>
       </c>
       <c r="Q15" s="5">
         <f ca="1"/>
-        <v>43661</v>
+        <v>44025</v>
       </c>
       <c r="R15" s="5">
         <f ca="1"/>
-        <v>43662</v>
+        <v>44026</v>
       </c>
       <c r="S15" s="5">
         <f ca="1"/>
-        <v>43663</v>
+        <v>44027</v>
       </c>
       <c r="T15" s="5">
         <f ca="1"/>
-        <v>43664</v>
+        <v>44028</v>
       </c>
       <c r="U15" s="5">
         <f ca="1"/>
-        <v>43665</v>
+        <v>44029</v>
       </c>
       <c r="V15" s="5">
         <f ca="1"/>
-        <v>43666</v>
+        <v>44030</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
         <f ca="1"/>
-        <v>43688</v>
+        <v>44052</v>
       </c>
       <c r="Y15" s="5">
         <f ca="1"/>
-        <v>43689</v>
+        <v>44053</v>
       </c>
       <c r="Z15" s="5">
         <f ca="1"/>
-        <v>43690</v>
+        <v>44054</v>
       </c>
       <c r="AA15" s="5">
         <f ca="1"/>
-        <v>43691</v>
+        <v>44055</v>
       </c>
       <c r="AB15" s="5">
         <f ca="1"/>
-        <v>43692</v>
+        <v>44056</v>
       </c>
       <c r="AC15" s="5">
         <f ca="1"/>
-        <v>43693</v>
+        <v>44057</v>
       </c>
       <c r="AD15" s="5">
         <f ca="1"/>
-        <v>43694</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <f ca="1"/>
-        <v>43604</v>
+        <v>43968</v>
       </c>
       <c r="C16" s="5">
         <f ca="1"/>
-        <v>43605</v>
+        <v>43969</v>
       </c>
       <c r="D16" s="5">
         <f ca="1"/>
-        <v>43606</v>
+        <v>43970</v>
       </c>
       <c r="E16" s="5">
         <f ca="1"/>
-        <v>43607</v>
+        <v>43971</v>
       </c>
       <c r="F16" s="5">
         <f ca="1"/>
-        <v>43608</v>
+        <v>43972</v>
       </c>
       <c r="G16" s="5">
         <f ca="1"/>
-        <v>43609</v>
+        <v>43973</v>
       </c>
       <c r="H16" s="5">
         <f ca="1"/>
-        <v>43610</v>
+        <v>43974</v>
       </c>
       <c r="I16" s="5">
         <f ca="1"/>
-        <v>43632</v>
+        <v>44003</v>
       </c>
       <c r="J16" s="5">
         <f ca="1"/>
-        <v>43633</v>
+        <v>44004</v>
       </c>
       <c r="K16" s="5">
         <f ca="1"/>
-        <v>43634</v>
+        <v>44005</v>
       </c>
       <c r="L16" s="5">
         <f ca="1"/>
-        <v>43635</v>
+        <v>44006</v>
       </c>
       <c r="M16" s="5">
         <f ca="1"/>
-        <v>43636</v>
+        <v>44007</v>
       </c>
       <c r="N16" s="5">
         <f ca="1"/>
-        <v>43637</v>
+        <v>44008</v>
       </c>
       <c r="O16" s="5">
         <f ca="1"/>
-        <v>43638</v>
+        <v>44009</v>
       </c>
       <c r="P16" s="5">
         <f ca="1"/>
-        <v>43667</v>
+        <v>44031</v>
       </c>
       <c r="Q16" s="5">
         <f ca="1"/>
-        <v>43668</v>
+        <v>44032</v>
       </c>
       <c r="R16" s="5">
         <f ca="1"/>
-        <v>43669</v>
+        <v>44033</v>
       </c>
       <c r="S16" s="5">
         <f ca="1"/>
-        <v>43670</v>
+        <v>44034</v>
       </c>
       <c r="T16" s="5">
         <f ca="1"/>
-        <v>43671</v>
+        <v>44035</v>
       </c>
       <c r="U16" s="5">
         <f ca="1"/>
-        <v>43672</v>
+        <v>44036</v>
       </c>
       <c r="V16" s="5">
         <f ca="1"/>
-        <v>43673</v>
+        <v>44037</v>
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5">
         <f ca="1"/>
-        <v>43695</v>
+        <v>44059</v>
       </c>
       <c r="Y16" s="5">
         <f ca="1"/>
-        <v>43696</v>
+        <v>44060</v>
       </c>
       <c r="Z16" s="5">
         <f ca="1"/>
-        <v>43697</v>
+        <v>44061</v>
       </c>
       <c r="AA16" s="5">
         <f ca="1"/>
-        <v>43698</v>
+        <v>44062</v>
       </c>
       <c r="AB16" s="5">
         <f ca="1"/>
-        <v>43699</v>
+        <v>44063</v>
       </c>
       <c r="AC16" s="5">
         <f ca="1"/>
-        <v>43700</v>
+        <v>44064</v>
       </c>
       <c r="AD16" s="5">
         <f ca="1"/>
-        <v>43701</v>
+        <v>44065</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <f ca="1"/>
-        <v>43611</v>
+        <v>43975</v>
       </c>
       <c r="C17" s="5">
         <f ca="1"/>
-        <v>43612</v>
+        <v>43976</v>
       </c>
       <c r="D17" s="5">
         <f ca="1"/>
-        <v>43613</v>
+        <v>43977</v>
       </c>
       <c r="E17" s="5">
         <f ca="1"/>
-        <v>43614</v>
+        <v>43978</v>
       </c>
       <c r="F17" s="5">
         <f ca="1"/>
-        <v>43615</v>
+        <v>43979</v>
       </c>
       <c r="G17" s="5">
         <f ca="1"/>
-        <v>43616</v>
+        <v>43980</v>
       </c>
       <c r="H17" s="5">
         <f ca="1"/>
-        <v>43617</v>
+        <v>43981</v>
       </c>
       <c r="I17" s="5">
         <f ca="1"/>
-        <v>43639</v>
+        <v>44010</v>
       </c>
       <c r="J17" s="5">
         <f ca="1"/>
-        <v>43640</v>
+        <v>44011</v>
       </c>
       <c r="K17" s="5">
         <f ca="1"/>
-        <v>43641</v>
+        <v>44012</v>
       </c>
       <c r="L17" s="5">
         <f ca="1"/>
-        <v>43642</v>
+        <v>44013</v>
       </c>
       <c r="M17" s="5">
         <f ca="1"/>
-        <v>43643</v>
+        <v>44014</v>
       </c>
       <c r="N17" s="5">
         <f ca="1"/>
-        <v>43644</v>
+        <v>44015</v>
       </c>
       <c r="O17" s="5">
         <f ca="1"/>
-        <v>43645</v>
+        <v>44016</v>
       </c>
       <c r="P17" s="5">
         <f ca="1"/>
-        <v>43674</v>
+        <v>44038</v>
       </c>
       <c r="Q17" s="5">
         <f ca="1"/>
-        <v>43675</v>
+        <v>44039</v>
       </c>
       <c r="R17" s="5">
         <f ca="1"/>
-        <v>43676</v>
+        <v>44040</v>
       </c>
       <c r="S17" s="5">
         <f ca="1"/>
-        <v>43677</v>
+        <v>44041</v>
       </c>
       <c r="T17" s="5">
         <f ca="1"/>
-        <v>43678</v>
+        <v>44042</v>
       </c>
       <c r="U17" s="5">
         <f ca="1"/>
-        <v>43679</v>
+        <v>44043</v>
       </c>
       <c r="V17" s="5">
         <f ca="1"/>
-        <v>43680</v>
+        <v>44044</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5">
         <f ca="1"/>
-        <v>43702</v>
+        <v>44066</v>
       </c>
       <c r="Y17" s="5">
         <f ca="1"/>
-        <v>43703</v>
+        <v>44067</v>
       </c>
       <c r="Z17" s="5">
         <f ca="1"/>
-        <v>43704</v>
+        <v>44068</v>
       </c>
       <c r="AA17" s="5">
         <f ca="1"/>
-        <v>43705</v>
+        <v>44069</v>
       </c>
       <c r="AB17" s="5">
         <f ca="1"/>
-        <v>43706</v>
+        <v>44070</v>
       </c>
       <c r="AC17" s="5">
         <f ca="1"/>
-        <v>43707</v>
+        <v>44071</v>
       </c>
       <c r="AD17" s="5">
         <f ca="1"/>
-        <v>43708</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <f ca="1"/>
-        <v>43618</v>
+        <v>43982</v>
       </c>
       <c r="C18" s="5">
         <f ca="1"/>
-        <v>43619</v>
+        <v>43983</v>
       </c>
       <c r="D18" s="5">
         <f ca="1"/>
-        <v>43620</v>
+        <v>43984</v>
       </c>
       <c r="E18" s="5">
         <f ca="1"/>
-        <v>43621</v>
+        <v>43985</v>
       </c>
       <c r="F18" s="5">
         <f ca="1"/>
-        <v>43622</v>
+        <v>43986</v>
       </c>
       <c r="G18" s="5">
         <f ca="1"/>
-        <v>43623</v>
+        <v>43987</v>
       </c>
       <c r="H18" s="5">
         <f ca="1"/>
-        <v>43624</v>
+        <v>43988</v>
       </c>
       <c r="I18" s="5">
         <f ca="1"/>
-        <v>43646</v>
+        <v>44017</v>
       </c>
       <c r="J18" s="5">
         <f ca="1"/>
-        <v>43647</v>
+        <v>44018</v>
       </c>
       <c r="K18" s="5">
         <f ca="1"/>
-        <v>43648</v>
+        <v>44019</v>
       </c>
       <c r="L18" s="5">
         <f ca="1"/>
-        <v>43649</v>
+        <v>44020</v>
       </c>
       <c r="M18" s="5">
         <f ca="1"/>
-        <v>43650</v>
+        <v>44021</v>
       </c>
       <c r="N18" s="5">
         <f ca="1"/>
-        <v>43651</v>
+        <v>44022</v>
       </c>
       <c r="O18" s="5">
         <f ca="1"/>
-        <v>43652</v>
+        <v>44023</v>
       </c>
       <c r="P18" s="5">
         <f ca="1"/>
-        <v>43681</v>
+        <v>44045</v>
       </c>
       <c r="Q18" s="5">
         <f ca="1"/>
-        <v>43682</v>
+        <v>44046</v>
       </c>
       <c r="R18" s="5">
         <f ca="1"/>
-        <v>43683</v>
+        <v>44047</v>
       </c>
       <c r="S18" s="5">
         <f ca="1"/>
-        <v>43684</v>
+        <v>44048</v>
       </c>
       <c r="T18" s="5">
         <f ca="1"/>
-        <v>43685</v>
+        <v>44049</v>
       </c>
       <c r="U18" s="5">
         <f ca="1"/>
-        <v>43686</v>
+        <v>44050</v>
       </c>
       <c r="V18" s="5">
         <f ca="1"/>
-        <v>43687</v>
+        <v>44051</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5">
         <f ca="1"/>
-        <v>43709</v>
+        <v>44073</v>
       </c>
       <c r="Y18" s="5">
         <f ca="1"/>
-        <v>43710</v>
+        <v>44074</v>
       </c>
       <c r="Z18" s="5">
         <f ca="1"/>
-        <v>43711</v>
+        <v>44075</v>
       </c>
       <c r="AA18" s="5">
         <f ca="1"/>
-        <v>43712</v>
+        <v>44076</v>
       </c>
       <c r="AB18" s="5">
         <f ca="1"/>
-        <v>43713</v>
+        <v>44077</v>
       </c>
       <c r="AC18" s="5">
         <f ca="1"/>
-        <v>43714</v>
+        <v>44078</v>
       </c>
       <c r="AD18" s="5">
         <f ca="1"/>
-        <v>43715</v>
+        <v>44079</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="str">
+      <c r="B19" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>SEPTEMBRE</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28" t="str">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>OCTOBRE</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28" t="str">
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>NOVEMBRE</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="28" t="str">
+      <c r="X19" s="33" t="str">
         <f ca="1">EnTêtesMois</f>
         <v>DÉCEMBRE</v>
       </c>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
     </row>
     <row r="20" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="str">
@@ -2817,691 +2817,691 @@
     <row r="21" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
         <f t="array" aca="1" ref="B21:H26" ca="1">Sep</f>
-        <v>43709</v>
+        <v>44073</v>
       </c>
       <c r="C21" s="5">
         <f ca="1"/>
-        <v>43710</v>
+        <v>44074</v>
       </c>
       <c r="D21" s="5">
         <f ca="1"/>
-        <v>43711</v>
+        <v>44075</v>
       </c>
       <c r="E21" s="5">
         <f ca="1"/>
-        <v>43712</v>
+        <v>44076</v>
       </c>
       <c r="F21" s="5">
         <f ca="1"/>
-        <v>43713</v>
+        <v>44077</v>
       </c>
       <c r="G21" s="5">
         <f ca="1"/>
-        <v>43714</v>
+        <v>44078</v>
       </c>
       <c r="H21" s="5">
         <f ca="1"/>
-        <v>43715</v>
+        <v>44079</v>
       </c>
       <c r="I21" s="5">
         <f t="array" aca="1" ref="I21:O26" ca="1">Oct</f>
-        <v>43737</v>
+        <v>44101</v>
       </c>
       <c r="J21" s="5">
         <f ca="1"/>
-        <v>43738</v>
+        <v>44102</v>
       </c>
       <c r="K21" s="5">
         <f ca="1"/>
-        <v>43739</v>
+        <v>44103</v>
       </c>
       <c r="L21" s="5">
         <f ca="1"/>
-        <v>43740</v>
+        <v>44104</v>
       </c>
       <c r="M21" s="5">
         <f ca="1"/>
-        <v>43741</v>
+        <v>44105</v>
       </c>
       <c r="N21" s="5">
         <f ca="1"/>
-        <v>43742</v>
+        <v>44106</v>
       </c>
       <c r="O21" s="5">
         <f ca="1"/>
-        <v>43743</v>
+        <v>44107</v>
       </c>
       <c r="P21" s="5">
         <f t="array" aca="1" ref="P21:V26" ca="1">Nov</f>
-        <v>43765</v>
+        <v>44136</v>
       </c>
       <c r="Q21" s="5">
         <f ca="1"/>
-        <v>43766</v>
+        <v>44137</v>
       </c>
       <c r="R21" s="5">
         <f ca="1"/>
-        <v>43767</v>
+        <v>44138</v>
       </c>
       <c r="S21" s="5">
         <f ca="1"/>
-        <v>43768</v>
+        <v>44139</v>
       </c>
       <c r="T21" s="5">
         <f ca="1"/>
-        <v>43769</v>
+        <v>44140</v>
       </c>
       <c r="U21" s="5">
         <f ca="1"/>
-        <v>43770</v>
+        <v>44141</v>
       </c>
       <c r="V21" s="5">
         <f ca="1"/>
-        <v>43771</v>
+        <v>44142</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5">
         <f t="array" aca="1" ref="X21:AD26" ca="1">Déc</f>
-        <v>43800</v>
+        <v>44164</v>
       </c>
       <c r="Y21" s="5">
         <f ca="1"/>
-        <v>43801</v>
+        <v>44165</v>
       </c>
       <c r="Z21" s="5">
         <f ca="1"/>
-        <v>43802</v>
+        <v>44166</v>
       </c>
       <c r="AA21" s="5">
         <f ca="1"/>
-        <v>43803</v>
+        <v>44167</v>
       </c>
       <c r="AB21" s="5">
         <f ca="1"/>
-        <v>43804</v>
+        <v>44168</v>
       </c>
       <c r="AC21" s="5">
         <f ca="1"/>
-        <v>43805</v>
+        <v>44169</v>
       </c>
       <c r="AD21" s="5">
         <f ca="1"/>
-        <v>43806</v>
+        <v>44170</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <f ca="1"/>
-        <v>43716</v>
+        <v>44080</v>
       </c>
       <c r="C22" s="5">
         <f ca="1"/>
-        <v>43717</v>
+        <v>44081</v>
       </c>
       <c r="D22" s="5">
         <f ca="1"/>
-        <v>43718</v>
+        <v>44082</v>
       </c>
       <c r="E22" s="5">
         <f ca="1"/>
-        <v>43719</v>
+        <v>44083</v>
       </c>
       <c r="F22" s="5">
         <f ca="1"/>
-        <v>43720</v>
+        <v>44084</v>
       </c>
       <c r="G22" s="5">
         <f ca="1"/>
-        <v>43721</v>
+        <v>44085</v>
       </c>
       <c r="H22" s="5">
         <f ca="1"/>
-        <v>43722</v>
+        <v>44086</v>
       </c>
       <c r="I22" s="5">
         <f ca="1"/>
-        <v>43744</v>
+        <v>44108</v>
       </c>
       <c r="J22" s="5">
         <f ca="1"/>
-        <v>43745</v>
+        <v>44109</v>
       </c>
       <c r="K22" s="5">
         <f ca="1"/>
-        <v>43746</v>
+        <v>44110</v>
       </c>
       <c r="L22" s="5">
         <f ca="1"/>
-        <v>43747</v>
+        <v>44111</v>
       </c>
       <c r="M22" s="5">
         <f ca="1"/>
-        <v>43748</v>
+        <v>44112</v>
       </c>
       <c r="N22" s="5">
         <f ca="1"/>
-        <v>43749</v>
+        <v>44113</v>
       </c>
       <c r="O22" s="5">
         <f ca="1"/>
-        <v>43750</v>
+        <v>44114</v>
       </c>
       <c r="P22" s="5">
         <f ca="1"/>
-        <v>43772</v>
+        <v>44143</v>
       </c>
       <c r="Q22" s="5">
         <f ca="1"/>
-        <v>43773</v>
+        <v>44144</v>
       </c>
       <c r="R22" s="5">
         <f ca="1"/>
-        <v>43774</v>
+        <v>44145</v>
       </c>
       <c r="S22" s="5">
         <f ca="1"/>
-        <v>43775</v>
+        <v>44146</v>
       </c>
       <c r="T22" s="5">
         <f ca="1"/>
-        <v>43776</v>
+        <v>44147</v>
       </c>
       <c r="U22" s="5">
         <f ca="1"/>
-        <v>43777</v>
+        <v>44148</v>
       </c>
       <c r="V22" s="5">
         <f ca="1"/>
-        <v>43778</v>
+        <v>44149</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5">
         <f ca="1"/>
-        <v>43807</v>
+        <v>44171</v>
       </c>
       <c r="Y22" s="5">
         <f ca="1"/>
-        <v>43808</v>
+        <v>44172</v>
       </c>
       <c r="Z22" s="12">
         <f ca="1"/>
-        <v>43809</v>
+        <v>44173</v>
       </c>
       <c r="AA22" s="12">
         <f ca="1"/>
-        <v>43810</v>
+        <v>44174</v>
       </c>
       <c r="AB22" s="12">
         <f ca="1"/>
-        <v>43811</v>
+        <v>44175</v>
       </c>
       <c r="AC22" s="12">
         <f ca="1"/>
-        <v>43812</v>
+        <v>44176</v>
       </c>
       <c r="AD22" s="12">
         <f ca="1"/>
-        <v>43813</v>
+        <v>44177</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <f ca="1"/>
-        <v>43723</v>
+        <v>44087</v>
       </c>
       <c r="C23" s="5">
         <f ca="1"/>
-        <v>43724</v>
+        <v>44088</v>
       </c>
       <c r="D23" s="5">
         <f ca="1"/>
-        <v>43725</v>
+        <v>44089</v>
       </c>
       <c r="E23" s="5">
         <f ca="1"/>
-        <v>43726</v>
+        <v>44090</v>
       </c>
       <c r="F23" s="5">
         <f ca="1"/>
-        <v>43727</v>
+        <v>44091</v>
       </c>
       <c r="G23" s="5">
         <f ca="1"/>
-        <v>43728</v>
+        <v>44092</v>
       </c>
       <c r="H23" s="5">
         <f ca="1"/>
-        <v>43729</v>
+        <v>44093</v>
       </c>
       <c r="I23" s="5">
         <f ca="1"/>
-        <v>43751</v>
+        <v>44115</v>
       </c>
       <c r="J23" s="5">
         <f ca="1"/>
-        <v>43752</v>
+        <v>44116</v>
       </c>
       <c r="K23" s="5">
         <f ca="1"/>
-        <v>43753</v>
+        <v>44117</v>
       </c>
       <c r="L23" s="5">
         <f ca="1"/>
-        <v>43754</v>
+        <v>44118</v>
       </c>
       <c r="M23" s="5">
         <f ca="1"/>
-        <v>43755</v>
+        <v>44119</v>
       </c>
       <c r="N23" s="5">
         <f ca="1"/>
-        <v>43756</v>
+        <v>44120</v>
       </c>
       <c r="O23" s="5">
         <f ca="1"/>
-        <v>43757</v>
+        <v>44121</v>
       </c>
       <c r="P23" s="5">
         <f ca="1"/>
-        <v>43779</v>
+        <v>44150</v>
       </c>
       <c r="Q23" s="5">
         <f ca="1"/>
-        <v>43780</v>
+        <v>44151</v>
       </c>
       <c r="R23" s="5">
         <f ca="1"/>
-        <v>43781</v>
+        <v>44152</v>
       </c>
       <c r="S23" s="5">
         <f ca="1"/>
-        <v>43782</v>
+        <v>44153</v>
       </c>
       <c r="T23" s="5">
         <f ca="1"/>
-        <v>43783</v>
+        <v>44154</v>
       </c>
       <c r="U23" s="5">
         <f ca="1"/>
-        <v>43784</v>
+        <v>44155</v>
       </c>
       <c r="V23" s="5">
         <f ca="1"/>
-        <v>43785</v>
+        <v>44156</v>
       </c>
       <c r="W23" s="5"/>
       <c r="X23" s="12">
         <f ca="1"/>
-        <v>43814</v>
+        <v>44178</v>
       </c>
       <c r="Y23" s="12">
         <f ca="1"/>
-        <v>43815</v>
+        <v>44179</v>
       </c>
       <c r="Z23" s="12">
         <f ca="1"/>
-        <v>43816</v>
+        <v>44180</v>
       </c>
       <c r="AA23" s="12">
         <f ca="1"/>
-        <v>43817</v>
+        <v>44181</v>
       </c>
       <c r="AB23" s="12">
         <f ca="1"/>
-        <v>43818</v>
+        <v>44182</v>
       </c>
       <c r="AC23" s="12">
         <f ca="1"/>
-        <v>43819</v>
+        <v>44183</v>
       </c>
       <c r="AD23" s="12">
         <f ca="1"/>
-        <v>43820</v>
+        <v>44184</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <f ca="1"/>
-        <v>43730</v>
+        <v>44094</v>
       </c>
       <c r="C24" s="5">
         <f ca="1"/>
-        <v>43731</v>
+        <v>44095</v>
       </c>
       <c r="D24" s="5">
         <f ca="1"/>
-        <v>43732</v>
+        <v>44096</v>
       </c>
       <c r="E24" s="5">
         <f ca="1"/>
-        <v>43733</v>
+        <v>44097</v>
       </c>
       <c r="F24" s="5">
         <f ca="1"/>
-        <v>43734</v>
+        <v>44098</v>
       </c>
       <c r="G24" s="5">
         <f ca="1"/>
-        <v>43735</v>
+        <v>44099</v>
       </c>
       <c r="H24" s="5">
         <f ca="1"/>
-        <v>43736</v>
+        <v>44100</v>
       </c>
       <c r="I24" s="5">
         <f ca="1"/>
-        <v>43758</v>
+        <v>44122</v>
       </c>
       <c r="J24" s="5">
         <f ca="1"/>
-        <v>43759</v>
+        <v>44123</v>
       </c>
       <c r="K24" s="5">
         <f ca="1"/>
-        <v>43760</v>
+        <v>44124</v>
       </c>
       <c r="L24" s="5">
         <f ca="1"/>
-        <v>43761</v>
+        <v>44125</v>
       </c>
       <c r="M24" s="5">
         <f ca="1"/>
-        <v>43762</v>
+        <v>44126</v>
       </c>
       <c r="N24" s="5">
         <f ca="1"/>
-        <v>43763</v>
+        <v>44127</v>
       </c>
       <c r="O24" s="5">
         <f ca="1"/>
-        <v>43764</v>
+        <v>44128</v>
       </c>
       <c r="P24" s="5">
         <f ca="1"/>
-        <v>43786</v>
+        <v>44157</v>
       </c>
       <c r="Q24" s="5">
         <f ca="1"/>
-        <v>43787</v>
+        <v>44158</v>
       </c>
       <c r="R24" s="5">
         <f ca="1"/>
-        <v>43788</v>
+        <v>44159</v>
       </c>
       <c r="S24" s="5">
         <f ca="1"/>
-        <v>43789</v>
+        <v>44160</v>
       </c>
       <c r="T24" s="5">
         <f ca="1"/>
-        <v>43790</v>
+        <v>44161</v>
       </c>
       <c r="U24" s="5">
         <f ca="1"/>
-        <v>43791</v>
+        <v>44162</v>
       </c>
       <c r="V24" s="5">
         <f ca="1"/>
-        <v>43792</v>
+        <v>44163</v>
       </c>
       <c r="W24" s="5"/>
       <c r="X24" s="12">
         <f ca="1"/>
-        <v>43821</v>
+        <v>44185</v>
       </c>
       <c r="Y24" s="12">
         <f ca="1"/>
-        <v>43822</v>
+        <v>44186</v>
       </c>
       <c r="Z24" s="12">
         <f ca="1"/>
-        <v>43823</v>
+        <v>44187</v>
       </c>
       <c r="AA24" s="12">
         <f ca="1"/>
-        <v>43824</v>
+        <v>44188</v>
       </c>
       <c r="AB24" s="12">
         <f ca="1"/>
-        <v>43825</v>
+        <v>44189</v>
       </c>
       <c r="AC24" s="12">
         <f ca="1"/>
-        <v>43826</v>
+        <v>44190</v>
       </c>
       <c r="AD24" s="12">
         <f ca="1"/>
-        <v>43827</v>
+        <v>44191</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <f ca="1"/>
-        <v>43737</v>
+        <v>44101</v>
       </c>
       <c r="C25" s="5">
         <f ca="1"/>
-        <v>43738</v>
+        <v>44102</v>
       </c>
       <c r="D25" s="5">
         <f ca="1"/>
-        <v>43739</v>
+        <v>44103</v>
       </c>
       <c r="E25" s="5">
         <f ca="1"/>
-        <v>43740</v>
+        <v>44104</v>
       </c>
       <c r="F25" s="5">
         <f ca="1"/>
-        <v>43741</v>
+        <v>44105</v>
       </c>
       <c r="G25" s="5">
         <f ca="1"/>
-        <v>43742</v>
+        <v>44106</v>
       </c>
       <c r="H25" s="5">
         <f ca="1"/>
-        <v>43743</v>
+        <v>44107</v>
       </c>
       <c r="I25" s="5">
         <f ca="1"/>
-        <v>43765</v>
+        <v>44129</v>
       </c>
       <c r="J25" s="5">
         <f ca="1"/>
-        <v>43766</v>
+        <v>44130</v>
       </c>
       <c r="K25" s="5">
         <f ca="1"/>
-        <v>43767</v>
+        <v>44131</v>
       </c>
       <c r="L25" s="5">
         <f ca="1"/>
-        <v>43768</v>
+        <v>44132</v>
       </c>
       <c r="M25" s="5">
         <f ca="1"/>
-        <v>43769</v>
+        <v>44133</v>
       </c>
       <c r="N25" s="5">
         <f ca="1"/>
-        <v>43770</v>
+        <v>44134</v>
       </c>
       <c r="O25" s="5">
         <f ca="1"/>
-        <v>43771</v>
+        <v>44135</v>
       </c>
       <c r="P25" s="5">
         <f ca="1"/>
-        <v>43793</v>
+        <v>44164</v>
       </c>
       <c r="Q25" s="5">
         <f ca="1"/>
-        <v>43794</v>
+        <v>44165</v>
       </c>
       <c r="R25" s="5">
         <f ca="1"/>
-        <v>43795</v>
+        <v>44166</v>
       </c>
       <c r="S25" s="5">
         <f ca="1"/>
-        <v>43796</v>
+        <v>44167</v>
       </c>
       <c r="T25" s="5">
         <f ca="1"/>
-        <v>43797</v>
+        <v>44168</v>
       </c>
       <c r="U25" s="5">
         <f ca="1"/>
-        <v>43798</v>
+        <v>44169</v>
       </c>
       <c r="V25" s="5">
         <f ca="1"/>
-        <v>43799</v>
+        <v>44170</v>
       </c>
       <c r="W25" s="5"/>
       <c r="X25" s="12">
         <f ca="1"/>
-        <v>43828</v>
+        <v>44192</v>
       </c>
       <c r="Y25" s="12">
         <f ca="1"/>
-        <v>43829</v>
+        <v>44193</v>
       </c>
       <c r="Z25" s="12">
         <f ca="1"/>
-        <v>43830</v>
+        <v>44194</v>
       </c>
       <c r="AA25" s="5">
         <f ca="1"/>
-        <v>43831</v>
+        <v>44195</v>
       </c>
       <c r="AB25" s="5">
         <f ca="1"/>
-        <v>43832</v>
+        <v>44196</v>
       </c>
       <c r="AC25" s="5">
         <f ca="1"/>
-        <v>43833</v>
+        <v>44197</v>
       </c>
       <c r="AD25" s="5">
         <f ca="1"/>
-        <v>43834</v>
+        <v>44198</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <f ca="1"/>
-        <v>43744</v>
+        <v>44108</v>
       </c>
       <c r="C26" s="5">
         <f ca="1"/>
-        <v>43745</v>
+        <v>44109</v>
       </c>
       <c r="D26" s="5">
         <f ca="1"/>
-        <v>43746</v>
+        <v>44110</v>
       </c>
       <c r="E26" s="5">
         <f ca="1"/>
-        <v>43747</v>
+        <v>44111</v>
       </c>
       <c r="F26" s="5">
         <f ca="1"/>
-        <v>43748</v>
+        <v>44112</v>
       </c>
       <c r="G26" s="5">
         <f ca="1"/>
-        <v>43749</v>
+        <v>44113</v>
       </c>
       <c r="H26" s="5">
         <f ca="1"/>
-        <v>43750</v>
+        <v>44114</v>
       </c>
       <c r="I26" s="5">
         <f ca="1"/>
-        <v>43772</v>
+        <v>44136</v>
       </c>
       <c r="J26" s="5">
         <f ca="1"/>
-        <v>43773</v>
+        <v>44137</v>
       </c>
       <c r="K26" s="5">
         <f ca="1"/>
-        <v>43774</v>
+        <v>44138</v>
       </c>
       <c r="L26" s="5">
         <f ca="1"/>
-        <v>43775</v>
+        <v>44139</v>
       </c>
       <c r="M26" s="5">
         <f ca="1"/>
-        <v>43776</v>
+        <v>44140</v>
       </c>
       <c r="N26" s="5">
         <f ca="1"/>
-        <v>43777</v>
+        <v>44141</v>
       </c>
       <c r="O26" s="5">
         <f ca="1"/>
-        <v>43778</v>
+        <v>44142</v>
       </c>
       <c r="P26" s="5">
         <f ca="1"/>
-        <v>43800</v>
+        <v>44171</v>
       </c>
       <c r="Q26" s="5">
         <f ca="1"/>
-        <v>43801</v>
+        <v>44172</v>
       </c>
       <c r="R26" s="5">
         <f ca="1"/>
-        <v>43802</v>
+        <v>44173</v>
       </c>
       <c r="S26" s="5">
         <f ca="1"/>
-        <v>43803</v>
+        <v>44174</v>
       </c>
       <c r="T26" s="5">
         <f ca="1"/>
-        <v>43804</v>
+        <v>44175</v>
       </c>
       <c r="U26" s="5">
         <f ca="1"/>
-        <v>43805</v>
+        <v>44176</v>
       </c>
       <c r="V26" s="5">
         <f ca="1"/>
-        <v>43806</v>
+        <v>44177</v>
       </c>
       <c r="W26" s="5"/>
       <c r="X26" s="5">
         <f ca="1"/>
-        <v>43835</v>
+        <v>44199</v>
       </c>
       <c r="Y26" s="5">
         <f ca="1"/>
-        <v>43836</v>
+        <v>44200</v>
       </c>
       <c r="Z26" s="5">
         <f ca="1"/>
-        <v>43837</v>
+        <v>44201</v>
       </c>
       <c r="AA26" s="5">
         <f ca="1"/>
-        <v>43838</v>
+        <v>44202</v>
       </c>
       <c r="AB26" s="5">
         <f ca="1"/>
-        <v>43839</v>
+        <v>44203</v>
       </c>
       <c r="AC26" s="5">
         <f ca="1"/>
-        <v>43840</v>
+        <v>44204</v>
       </c>
       <c r="AD26" s="5">
         <f ca="1"/>
-        <v>43841</v>
+        <v>44205</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -3513,6 +3513,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="P19:V19"/>
+    <mergeCell ref="X19:AD19"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:AD1"/>
     <mergeCell ref="B1:J1"/>
@@ -3521,14 +3529,6 @@
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="P19:V19"/>
-    <mergeCell ref="X19:AD19"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:H10">
     <cfRule type="expression" dxfId="23" priority="12">
@@ -3639,8 +3639,8 @@
   </sheetPr>
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:AE1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3674,66 +3674,66 @@
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
       <c r="Q1" s="21"/>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
     </row>
     <row r="2" spans="1:31" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="B2" s="33">
+      <c r="B2" s="36">
         <f>YEAR(DATE(2020,1,1))</f>
         <v>2020</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
     </row>
     <row r="3" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="35" t="str">
@@ -4061,7 +4061,7 @@
       <c r="D7" s="15">
         <v>43844</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="25">
         <v>43845</v>
       </c>
       <c r="F7" s="15">
@@ -5762,13 +5762,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R1:AE1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="R11:X11"/>
-    <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="J19:P19"/>
     <mergeCell ref="R19:X19"/>
@@ -5778,6 +5771,13 @@
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="R1:AE1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="Y11:AE11"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:I10">
     <cfRule type="expression" dxfId="11" priority="12">
